--- a/data/rings_base_example/Power_Parameters.xlsx
+++ b/data/rings_base_example/Power_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20520BDC-0660-4004-8D05-AEE77B895EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76490811-319E-4C65-9999-4C32B4DFFEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
   </sheetPr>
   <dimension ref="B1:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9">
-        <v>10000</v>
+        <v>100000000</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1831,15 +1831,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1985,6 +1976,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1992,14 +1992,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2013,6 +2005,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
